--- a/Identifying-new-bikes/src/test/resources/test_data/new_bikes_test_data.xlsx
+++ b/Identifying-new-bikes/src/test/resources/test_data/new_bikes_test_data.xlsx
@@ -38,64 +38,64 @@
     <t>Yamaha XSR125</t>
   </si>
   <si>
+    <t>Eko Tejas E-Dyroth</t>
+  </si>
+  <si>
+    <t>Hero Xoom 160</t>
+  </si>
+  <si>
+    <t>Tork Electric Bike</t>
+  </si>
+  <si>
+    <t>Hero Xtreme 200R</t>
+  </si>
+  <si>
+    <t>Ather Rizta</t>
+  </si>
+  <si>
+    <t>Suzuki Burgman Electric</t>
+  </si>
+  <si>
+    <t>Zontes U1 200</t>
+  </si>
+  <si>
+    <t>Tork Kratos X</t>
+  </si>
+  <si>
+    <t>Revamp Moto RM Mitra</t>
+  </si>
+  <si>
+    <t>Gogoro CrossOver</t>
+  </si>
+  <si>
+    <t>Honda PCX160</t>
+  </si>
+  <si>
+    <t>TVS ADV</t>
+  </si>
+  <si>
+    <t>Honda Activa Electric</t>
+  </si>
+  <si>
+    <t>Bajaj Pulsar NS400</t>
+  </si>
+  <si>
+    <t>Ola Roadster</t>
+  </si>
+  <si>
+    <t>Hero Xtreme 210R</t>
+  </si>
+  <si>
+    <t>Hero XPulse 210</t>
+  </si>
+  <si>
+    <t>Hero Adventure Scooter</t>
+  </si>
+  <si>
+    <t>Gogoro 2 Series</t>
+  </si>
+  <si>
     <t>Yamaha NMax 155</t>
-  </si>
-  <si>
-    <t>Eko Tejas E-Dyroth</t>
-  </si>
-  <si>
-    <t>Honda Activa Electric</t>
-  </si>
-  <si>
-    <t>Hero Xoom 160</t>
-  </si>
-  <si>
-    <t>Tork Electric Bike</t>
-  </si>
-  <si>
-    <t>Hero Xtreme 200R</t>
-  </si>
-  <si>
-    <t>Ather Rizta</t>
-  </si>
-  <si>
-    <t>Suzuki Burgman Electric</t>
-  </si>
-  <si>
-    <t>Zontes U1 200</t>
-  </si>
-  <si>
-    <t>Tork Kratos X</t>
-  </si>
-  <si>
-    <t>Revamp Moto RM Mitra</t>
-  </si>
-  <si>
-    <t>Gogoro CrossOver</t>
-  </si>
-  <si>
-    <t>Honda PCX160</t>
-  </si>
-  <si>
-    <t>TVS ADV</t>
-  </si>
-  <si>
-    <t>Bajaj Pulsar NS400</t>
-  </si>
-  <si>
-    <t>Ola Roadster</t>
-  </si>
-  <si>
-    <t>Hero Xtreme 210R</t>
-  </si>
-  <si>
-    <t>Hero XPulse 210</t>
-  </si>
-  <si>
-    <t>Hero Adventure Scooter</t>
-  </si>
-  <si>
-    <t>Gogoro 2 Series</t>
   </si>
   <si>
     <t>Peugeot Django 125</t>
